--- a/biology/Botanique/Carl_Frederick_Fallén/Carl_Frederick_Fallén.xlsx
+++ b/biology/Botanique/Carl_Frederick_Fallén/Carl_Frederick_Fallén.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carl_Frederick_Fall%C3%A9n</t>
+          <t>Carl_Frederick_Fallén</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Frederick (ou Frederik ou Friedrich) Fallén est un botaniste et entomologiste suédois, né le 22 septembre 1764 à Kristinehamn et mort le 26 août 1830 à Esperd.
 Il enseigna à l’université de Lund.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carl_Frederick_Fall%C3%A9n</t>
+          <t>Carl_Frederick_Fallén</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monographia cimicum Sveciae. Hafniae [= Copenhagen]. 124 p. (1807) [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monographia cimicum Sveciae. Hafniae [= Copenhagen]. 124 p. (1807) 
 Specimen entomologicum novam Diptera disponendi methodum exhibens. Berlingianus, Lundae [= Lund]. 26 p. (1810)
-Försök att bestämma de i Sverige funne flugarter, som kunna fras till slgtet Tachina. K. Sven. Vetenskapsakad. Handl. (2) 31: 253-87. (1810) [2]
+Försök att bestämma de i Sverige funne flugarter, som kunna fras till slgtet Tachina. K. Sven. Vetenskapsakad. Handl. (2) 31: 253-87. (1810) 
 Beskrifning öfver några i Sverige funna vattenflugor (Hydromyzides). K. Sven. Vetenskapsakad. Handl. (3) 1813: 240-57. (1813)
-Specimen Novam Hymenoptera Disponendi Methodum Exhibens. Dissertation. Berling, Lund. pp. 1–41. 1 pl. (1813) [3]
+Specimen Novam Hymenoptera Disponendi Methodum Exhibens. Dissertation. Berling, Lund. pp. 1–41. 1 pl. (1813) 
 Beskrifning öfver några Rot-fluge Arter, hörande till slägterna Thereva och Ocyptera. K. Sven. Vetenskapsakad. Handl. (3) 1815: 229-40. (1815)
 Syrphici Sveciae [part]. Berling, Lundae [= Lund]. P. 23–62 (1817)
 Scenopinii et Conopsariae Sveciae. Berling, Lundae [= Lund]. 14 p. (1817)
@@ -535,7 +549,7 @@
 Monographia Dolichopodum Sveciae. Berling, Lundae [= Lund]. 24 p. (1823)
 Phytomyzides et Ochtidiae Sveciae. Berling, Lundae [= Lund]. 10 p. (1823)
 Monographia Muscidum Sveciae. Part IX &amp; ultima. Berling, Lundae [= Lund]. P. 81–94. (18 June) (1825)
-Hemiptera Sveciae. Cimicides eorumque familiae affines. Londini Gothorum [= Lund]. Ex Officina Berlingiana: 1–187. (1826) [4]
+Hemiptera Sveciae. Cimicides eorumque familiae affines. Londini Gothorum [= Lund]. Ex Officina Berlingiana: 1–187. (1826) 
 Notices d'autorité : VIAF ISNI IdRef LCCN GND Italie Pays-Bas Suède WorldCat 
  Portail de l’histoire de la zoologie et de la botanique   Portail de la Suède   Portail de l’entomologie   Portail de la zoologie   Portail de la botanique                 </t>
         </is>
